--- a/Adatbazis_tervek/tablatervek.xlsx
+++ b/Adatbazis_tervek/tablatervek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biroa\Webker\fakeface\Adatbazis_tervek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C8437-2518-40A0-8042-3ED2F65FD007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA90A2B-7884-4953-B120-71E652B563DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DE73359-FE26-4CB0-80D9-1683F7404BFA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Felhasználók</t>
   </si>
@@ -68,9 +68,6 @@
     <t>hozzászólások</t>
   </si>
   <si>
-    <t>felhasználó</t>
-  </si>
-  <si>
     <t>Üzenetek</t>
   </si>
   <si>
@@ -80,25 +77,106 @@
     <t>felhasználó2 (partner)</t>
   </si>
   <si>
-    <t>üzenetek</t>
-  </si>
-  <si>
-    <t>médiatartalom</t>
-  </si>
-  <si>
     <t>Barátok</t>
   </si>
   <si>
-    <t>felhasználók</t>
-  </si>
-  <si>
-    <t>profilképeik</t>
-  </si>
-  <si>
-    <t>publikus adataik</t>
-  </si>
-  <si>
-    <t>posztok</t>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>varcar(max)</t>
+  </si>
+  <si>
+    <t>varchar(max)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>integer, foreign key</t>
+  </si>
+  <si>
+    <t>Hozzászólás</t>
+  </si>
+  <si>
+    <t>tartalom</t>
+  </si>
+  <si>
+    <t>integer, for. Key</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>integer, for. key</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>key, integer</t>
+  </si>
+  <si>
+    <t>user_id, for. Key</t>
+  </si>
+  <si>
+    <t>üzenet</t>
+  </si>
+  <si>
+    <t>felhasználó2</t>
+  </si>
+  <si>
+    <t>Friend request</t>
+  </si>
+  <si>
+    <t>küldő</t>
+  </si>
+  <si>
+    <t>fogadó</t>
+  </si>
+  <si>
+    <t>elfogadva</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>törölve</t>
+  </si>
+  <si>
+    <t>qr_code</t>
+  </si>
+  <si>
+    <t>Chat Room</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>integer, key</t>
+  </si>
+  <si>
+    <t>chat room id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
 </sst>
 </file>
@@ -480,95 +558,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F5F680-D4FB-4BA5-AF68-707DF6AE359A}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
